--- a/Table/Table_xls/d道具表/z转生道具配置表.xlsx
+++ b/Table/Table_xls/d道具表/z转生道具配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 1为洗点
 2为加点</t>
         </r>
@@ -41,11 +40,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 重置属性，负为重置点数为潜力，正为增加点数</t>
         </r>
       </text>
@@ -55,11 +53,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 作者:
 重置属性，负为重置点数为潜力，正为增加点数</t>
         </r>
@@ -80,11 +77,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0-不绑定
 1-绑定</t>
         </r>
@@ -95,11 +91,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0-关联随机：后续“物品1类”~“物品8类”所有物品放在一起随即一次，只可获得一个种类。
 1-不关联随机：后续“物品1类”~“物品8类”每个类别各自随机，可同时获得多个种类。</t>
         </r>
@@ -110,11 +105,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 公告编号：没有时填0
 公告格式为4参数：
 参数1-角色名；
@@ -130,11 +124,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0-不发
 1-发</t>
         </r>
@@ -145,11 +138,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 用于控制重要物品的总产出。
 填写方式：物品类型库id@总数量，多个物品用分号隔开。</t>
         </r>
@@ -160,11 +152,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0-永不清除
 1-每日0点清除
 2-每周一0点清除
@@ -177,11 +168,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0-不打
 1-打
 奖励ID打元宝标记则该奖励下所有物品均有元宝标记</t>
@@ -193,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="163">
   <si>
     <t>道具ID</t>
   </si>
@@ -214,21 +204,6 @@
   </si>
   <si>
     <t>敏捷</t>
-  </si>
-  <si>
-    <t>331006</t>
-  </si>
-  <si>
-    <t>331007</t>
-  </si>
-  <si>
-    <t>331008</t>
-  </si>
-  <si>
-    <t>331009</t>
-  </si>
-  <si>
-    <t>331010</t>
   </si>
   <si>
     <t>340430</t>
@@ -705,11 +680,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,6 +712,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -745,33 +728,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -783,7 +743,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,9 +765,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,7 +819,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,9 +827,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -844,34 +849,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -931,13 +911,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,7 +977,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,13 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,61 +1049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,43 +1067,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,11 +1081,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,21 +1132,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1164,28 +1146,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,10 +1184,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1216,137 +1196,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1381,7 +1361,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1436,6 +1415,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1720,32 +1704,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.5" style="11"/>
-    <col min="2" max="2" width="20.1333333333333" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.1296296296296" style="11" customWidth="1"/>
     <col min="3" max="7" width="6.75" style="11" customWidth="1"/>
     <col min="8" max="16384" width="7.5" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="1" customFormat="1" ht="14.4" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1768,104 +1751,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C2" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
+      <c r="D2" s="11">
+        <v>20</v>
+      </c>
+      <c r="E2" s="11">
+        <v>20</v>
+      </c>
+      <c r="F2" s="11">
+        <v>20</v>
+      </c>
+      <c r="G2" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" s="11" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="11">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="C3" s="11">
+        <v>50</v>
       </c>
       <c r="D3" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="11">
-        <v>150</v>
-      </c>
-      <c r="C7" s="11">
-        <v>20</v>
-      </c>
-      <c r="D7" s="11">
-        <v>20</v>
-      </c>
-      <c r="E7" s="11">
-        <v>20</v>
-      </c>
-      <c r="F7" s="11">
-        <v>20</v>
-      </c>
-      <c r="G7" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" s="11" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="11">
-        <v>150</v>
-      </c>
-      <c r="C8" s="11">
         <v>50</v>
       </c>
-      <c r="D8" s="11">
+      <c r="E3" s="11">
         <v>50</v>
       </c>
-      <c r="E8" s="11">
+      <c r="F3" s="11">
         <v>50</v>
       </c>
-      <c r="F8" s="11">
-        <v>50</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="G3" s="11">
         <v>50</v>
       </c>
     </row>
@@ -1878,7 +1806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B16384"/>
   <sheetViews>
@@ -1886,7 +1814,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="2" customWidth="1"/>
@@ -1895,623 +1823,623 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
+      <c r="B25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="7" t="s">
+      <c r="B26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="7" t="s">
+      <c r="B27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
+      <c r="B29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="8" t="s">
+      <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="2" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="8" t="s">
+      <c r="B31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="8" t="s">
+      <c r="B32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="2" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="8" t="s">
+      <c r="B33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="2" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="7" t="s">
+      <c r="B34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="2" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="B35" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="2" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="2" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="7" t="s">
+      <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="2" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="7" t="s">
+      <c r="B38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="2" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="8" t="s">
+      <c r="B39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="2" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="8" t="s">
+      <c r="B40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="2" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="8" t="s">
+      <c r="B41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="2" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="8" t="s">
+      <c r="B42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="2" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="8" t="s">
+      <c r="B43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="2" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="7" t="s">
+      <c r="B44" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="2" t="s">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="7" t="s">
+      <c r="B45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="2" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="7" t="s">
+      <c r="B46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="2" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="7" t="s">
+      <c r="B47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="2" t="s">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
+      <c r="B48" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="2" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="8" t="s">
+      <c r="B49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="2" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="8" t="s">
+      <c r="B50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="2" t="s">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="8" t="s">
+      <c r="B51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="2" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="8" t="s">
+      <c r="B52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="2" t="s">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="8" t="s">
+      <c r="B53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="2" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="7" t="s">
+      <c r="B54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="2" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="7" t="s">
+      <c r="B55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="2" t="s">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="7" t="s">
+      <c r="B56" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="2" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="7" t="s">
+      <c r="B57" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="2" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="7" t="s">
+      <c r="B58" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="2" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="8" t="s">
+      <c r="B59" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="2" t="s">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="8" t="s">
+      <c r="B60" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="2" t="s">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="8" t="s">
+      <c r="B61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="2" t="s">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="8" t="s">
+      <c r="B62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="2" t="s">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="8" t="s">
+      <c r="B63" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="2" t="s">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="7" t="s">
+      <c r="B64" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="2" t="s">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="7" t="s">
+      <c r="B65" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="2" t="s">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="7" t="s">
+      <c r="B66" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="2" t="s">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="7" t="s">
+      <c r="B67" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="2" t="s">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="7" t="s">
+      <c r="B68" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="2" t="s">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="9" t="s">
+      <c r="B69" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B67" s="2" t="s">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="9" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="9" t="s">
+      <c r="B70" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B68" s="2" t="s">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="9" t="s">
+      <c r="B71" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B69" s="2" t="s">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="9" t="s">
+      <c r="B72" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B70" s="2" t="s">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="9" t="s">
+      <c r="B73" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B71" s="2" t="s">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="9" t="s">
+      <c r="B74" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B72" s="2" t="s">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="9" t="s">
+      <c r="B75" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B73" s="2" t="s">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="9" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="9" t="s">
+      <c r="B76" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="2" t="s">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="9" t="s">
+      <c r="B77" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B75" s="2" t="s">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="9" t="s">
+      <c r="B78" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -51440,7 +51368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -51448,7 +51376,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
